--- a/overview-calendar.xlsx
+++ b/overview-calendar.xlsx
@@ -14,81 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>05-01-2024 vrijdag</t>
-  </si>
-  <si>
-    <t>06-01-2024 zaterdag</t>
-  </si>
-  <si>
-    <t>07-01-2024 zondag</t>
-  </si>
-  <si>
-    <t>08-01-2024 maandag</t>
-  </si>
-  <si>
-    <t>09-01-2024 dinsdag</t>
-  </si>
-  <si>
-    <t>10-01-2024 woensdag</t>
-  </si>
-  <si>
-    <t>11-01-2024 donderdag</t>
-  </si>
-  <si>
-    <t>12-01-2024 vrijdag</t>
-  </si>
-  <si>
-    <t>13-01-2024 zaterdag</t>
-  </si>
-  <si>
-    <t>14-01-2024 zondag</t>
-  </si>
-  <si>
-    <t>15-01-2024 maandag</t>
-  </si>
-  <si>
-    <t>16-01-2024 dinsdag</t>
-  </si>
-  <si>
-    <t>17-01-2024 woensdag</t>
-  </si>
-  <si>
-    <t>18-01-2024 donderdag</t>
-  </si>
-  <si>
-    <t>19-01-2024 vrijdag</t>
-  </si>
-  <si>
-    <t>20-01-2024 zaterdag</t>
-  </si>
-  <si>
-    <t>21-01-2024 zondag</t>
-  </si>
-  <si>
-    <t>22-01-2024 maandag</t>
-  </si>
-  <si>
-    <t>23-01-2024 dinsdag</t>
-  </si>
-  <si>
-    <t>24-01-2024 woensdag</t>
-  </si>
-  <si>
-    <t>25-01-2024 donderdag</t>
-  </si>
-  <si>
-    <t>26-01-2024 vrijdag</t>
-  </si>
-  <si>
-    <t>27-01-2024 zaterdag</t>
-  </si>
-  <si>
-    <t>28-01-2024 zondag</t>
-  </si>
-  <si>
-    <t>29-01-2024 maandag</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>02-01-2024 dinsdag</t>
+  </si>
+  <si>
+    <t>Kerstvakantie , start op 02-01-2024 07:30:00 eindigt op 02-01-2024 21:30:00</t>
   </si>
   <si>
     <t>Minimum tijd</t>
@@ -135,7 +66,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,12 +76,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,10 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -466,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,7 +399,7 @@
     <col min="1" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,218 +407,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="b">
-        <v>1</v>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="B5">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="B8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31">
-        <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/overview-calendar.xlsx
+++ b/overview-calendar.xlsx
@@ -14,12 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>02-01-2024 dinsdag</t>
-  </si>
-  <si>
-    <t>Kerstvakantie , start op 02-01-2024 07:30:00 eindigt op 02-01-2024 21:30:00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>03-01-2024 woensdag</t>
+  </si>
+  <si>
+    <t>Kerstvakantie , start op 03-01-2024 07:30:00 eindigt op 03-01-2024 21:30:00</t>
+  </si>
+  <si>
+    <t>04-01-2024 donderdag</t>
+  </si>
+  <si>
+    <t>Kerstvakantie , start op 04-01-2024 07:30:00 eindigt op 04-01-2024 21:30:00</t>
+  </si>
+  <si>
+    <t>05-01-2024 vrijdag</t>
+  </si>
+  <si>
+    <t>Kerstvakantie , start op 05-01-2024 07:30:00 eindigt op 05-01-2024 21:30:00</t>
+  </si>
+  <si>
+    <t>06-01-2024 zaterdag</t>
+  </si>
+  <si>
+    <t>Kerstvakantie , start op 06-01-2024 07:30:00 eindigt op 06-01-2024 21:30:00</t>
+  </si>
+  <si>
+    <t>07-01-2024 zondag</t>
+  </si>
+  <si>
+    <t>08-01-2024 maandag</t>
+  </si>
+  <si>
+    <t>09-01-2024 dinsdag</t>
+  </si>
+  <si>
+    <t>b verjaardag start op 09-01-2024 05:00:00 eindigt op 09-01-2024 06:00:00</t>
+  </si>
+  <si>
+    <t>PRJCT Sprintreview , . start op 09-01-2024 07:30:00 eindigt op 09-01-2024 09:30:00</t>
+  </si>
+  <si>
+    <t>PRJCT Sprintplanning_Projectbegeleiding , . start op 09-01-2024 09:30:00 eindigt op 09-01-2024 16:30:00</t>
+  </si>
+  <si>
+    <t>10-01-2024 woensdag</t>
   </si>
   <si>
     <t>Minimum tijd</t>
@@ -66,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +115,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -92,9 +137,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -390,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,25 +464,126 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
         <v>120</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
+      <c r="C22" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/overview-calendar.xlsx
+++ b/overview-calendar.xlsx
@@ -14,39 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
-  <si>
-    <t>03-01-2024 woensdag</t>
-  </si>
-  <si>
-    <t>Kerstvakantie , start op 03-01-2024 07:30:00 eindigt op 03-01-2024 21:30:00</t>
-  </si>
-  <si>
-    <t>04-01-2024 donderdag</t>
-  </si>
-  <si>
-    <t>Kerstvakantie , start op 04-01-2024 07:30:00 eindigt op 04-01-2024 21:30:00</t>
-  </si>
-  <si>
-    <t>05-01-2024 vrijdag</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <si>
+    <t>05-01-2024 Friday</t>
   </si>
   <si>
     <t>Kerstvakantie , start op 05-01-2024 07:30:00 eindigt op 05-01-2024 21:30:00</t>
   </si>
   <si>
-    <t>06-01-2024 zaterdag</t>
+    <t>06-01-2024 Saturday</t>
   </si>
   <si>
     <t>Kerstvakantie , start op 06-01-2024 07:30:00 eindigt op 06-01-2024 21:30:00</t>
   </si>
   <si>
-    <t>07-01-2024 zondag</t>
-  </si>
-  <si>
-    <t>08-01-2024 maandag</t>
-  </si>
-  <si>
-    <t>09-01-2024 dinsdag</t>
+    <t>07-01-2024 Sunday</t>
+  </si>
+  <si>
+    <t>08-01-2024 Monday</t>
+  </si>
+  <si>
+    <t>09-01-2024 Tuesday</t>
   </si>
   <si>
     <t>b verjaardag start op 09-01-2024 05:00:00 eindigt op 09-01-2024 06:00:00</t>
@@ -58,7 +46,19 @@
     <t>PRJCT Sprintplanning_Projectbegeleiding , . start op 09-01-2024 09:30:00 eindigt op 09-01-2024 16:30:00</t>
   </si>
   <si>
-    <t>10-01-2024 woensdag</t>
+    <t>10-01-2024 Wednesday</t>
+  </si>
+  <si>
+    <t>11-01-2024 Thursday</t>
+  </si>
+  <si>
+    <t>PV Engels 2 Hoorcollege , . start op 11-01-2024 10:30:00 eindigt op 11-01-2024 13:30:00</t>
+  </si>
+  <si>
+    <t>12-01-2024 Friday</t>
+  </si>
+  <si>
+    <t>Deadline English Portfolio start op 12-01-2024 00:00:00 eindigt op 13-01-2024 00:00:00</t>
   </si>
   <si>
     <t>Minimum tijd</t>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,21 +482,19 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="C9" t="s">
-        <v>5</v>
+      <c r="B9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -514,75 +512,67 @@
     </row>
     <row r="12" spans="1:3">
       <c r="C12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="b">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="b">
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>13</v>
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
+      <c r="B20">
         <v>120</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C20" t="s">
         <v>19</v>
       </c>
     </row>
